--- a/biology/Histoire de la zoologie et de la botanique/Russell_Tuttle/Russell_Tuttle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Russell_Tuttle/Russell_Tuttle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russell Tuttle (né le 18 août 1939) est un zoologiste morphologiste, primatologue et paléoanthropologue américain, connu pour avoir inventé le terme de knuckle walking (locomotion sur les articulations) pour décrire la marche des primates.
 Il travaille actuellement au département d'anthropologie de l'université de Chicago.
